--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -610,7 +610,7 @@
         <v>43981</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>44052</v>
       </c>
       <c r="B93">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2015,23 +2015,23 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B298">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,82 +4471,82 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B520"/>
+  <dimension ref="A1:B524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1274,7 +1274,7 @@
         <v>44070</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2015,23 +2015,23 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B327">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B338">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B341">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B380">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,81 +4471,113 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="2">
         <v>44594</v>
       </c>
-      <c r="B520">
+      <c r="B521">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B524">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B524"/>
+  <dimension ref="A1:B525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,7 +858,7 @@
         <v>44018</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>44070</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44088</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2015,23 +2015,23 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B298">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,10 +4375,10 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4578,6 +4578,14 @@
         <v>44597</v>
       </c>
       <c r="B524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B525">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -858,7 +858,7 @@
         <v>44018</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>44074</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44088</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1767,7 +1767,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,39 +1783,39 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -1823,47 +1823,47 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,23 +1895,23 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,39 +1935,39 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,47 +1983,47 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,39 +2039,39 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -2079,15 +2079,15 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -2095,15 +2095,15 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,23 +2135,23 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -2159,31 +2159,31 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B225">
         <v>3</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,31 +2215,31 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B232">
         <v>4</v>
@@ -2247,71 +2247,71 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B233">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B241">
         <v>6</v>
@@ -2319,23 +2319,23 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B242">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B244">
         <v>6</v>
@@ -2343,135 +2343,135 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B245">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B261">
         <v>7</v>
@@ -2479,15 +2479,15 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B262">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B263">
         <v>8</v>
@@ -2495,111 +2495,111 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B277">
         <v>6</v>
@@ -2607,95 +2607,95 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B278">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B289">
         <v>8</v>
@@ -2703,47 +2703,47 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B290">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B295">
         <v>8</v>
@@ -2751,23 +2751,23 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B296">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B298">
         <v>8</v>
@@ -2775,15 +2775,15 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B299">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B300">
         <v>6</v>
@@ -2791,71 +2791,71 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B301">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B309">
         <v>7</v>
@@ -2863,95 +2863,95 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B310">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B321">
         <v>6</v>
@@ -2959,47 +2959,47 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B322">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B327">
         <v>11</v>
@@ -3007,87 +3007,87 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B328">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B338">
         <v>6</v>
@@ -3095,23 +3095,23 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B339">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B341">
         <v>8</v>
@@ -3119,103 +3119,103 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B342">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B354">
         <v>5</v>
@@ -3223,191 +3223,191 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B355">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B378">
         <v>2</v>
@@ -3415,15 +3415,15 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B380">
         <v>5</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,63 +3439,63 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B382">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,15 +3519,15 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B392">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -3535,39 +3535,39 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -3575,79 +3575,79 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B408">
         <v>2</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,23 +3663,23 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -3687,23 +3687,23 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B415">
         <v>2</v>
@@ -3711,15 +3711,15 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B416">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,39 +3759,39 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,23 +3815,23 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -3839,15 +3839,15 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B433">
         <v>2</v>
@@ -3855,15 +3855,15 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,31 +3919,31 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,15 +4023,15 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B456">
         <v>2</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,31 +4063,31 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B463">
         <v>2</v>
@@ -4095,15 +4095,15 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,23 +4111,23 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,39 +4151,39 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,15 +4231,15 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B482">
         <v>2</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,15 +4255,15 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B484">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,39 +4287,39 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,15 +4351,15 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B497">
         <v>2</v>
@@ -4367,15 +4367,15 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -4383,15 +4383,15 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,23 +4567,23 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B525">
         <v>1</v>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -754,7 +754,7 @@
         <v>44002</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>44074</v>
       </c>
       <c r="B115">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4367,7 +4367,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B498">
         <v>1</v>
@@ -4375,15 +4375,15 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -4391,15 +4391,15 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B501">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B502">
         <v>1</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,39 +4423,39 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B509">
         <v>2</v>
@@ -4463,95 +4463,95 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B521">
         <v>2</v>
@@ -4559,15 +4559,15 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B523">
         <v>3</v>
@@ -4575,18 +4575,18 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B525"/>
+  <dimension ref="A1:B527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,7 +754,7 @@
         <v>44002</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44018</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>44074</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44088</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1767,7 +1767,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,39 +1783,39 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B175">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -1823,47 +1823,47 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B180">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,23 +1895,23 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B189">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,39 +1935,39 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,47 +1983,47 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,39 +2039,39 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -2079,15 +2079,15 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -2095,15 +2095,15 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,23 +2135,23 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B219">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -2159,31 +2159,31 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B222">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B225">
         <v>3</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,31 +2215,31 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B229">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B232">
         <v>4</v>
@@ -2247,71 +2247,71 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B233">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B236">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B241">
         <v>6</v>
@@ -2319,23 +2319,23 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B244">
         <v>6</v>
@@ -2343,135 +2343,135 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B245">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B261">
         <v>7</v>
@@ -2479,15 +2479,15 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B262">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B263">
         <v>8</v>
@@ -2495,111 +2495,111 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B264">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B267">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B271">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B273">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B277">
         <v>6</v>
@@ -2607,95 +2607,95 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B278">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B289">
         <v>8</v>
@@ -2703,47 +2703,47 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B290">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B295">
         <v>8</v>
@@ -2751,23 +2751,23 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B296">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B298">
         <v>8</v>
@@ -2775,15 +2775,15 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B299">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B300">
         <v>6</v>
@@ -2791,71 +2791,71 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B301">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B309">
         <v>7</v>
@@ -2863,95 +2863,95 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B310">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B318">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B321">
         <v>6</v>
@@ -2959,47 +2959,47 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B322">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B327">
         <v>11</v>
@@ -3007,87 +3007,87 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B328">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B338">
         <v>6</v>
@@ -3095,23 +3095,23 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B339">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B341">
         <v>8</v>
@@ -3119,103 +3119,103 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B342">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B349">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B354">
         <v>5</v>
@@ -3223,191 +3223,191 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B357">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B361">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B377">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B378">
         <v>2</v>
@@ -3415,15 +3415,15 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B379">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B380">
         <v>5</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,63 +3439,63 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B382">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,15 +3519,15 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -3535,39 +3535,39 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B394">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -3575,79 +3575,79 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B404">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B408">
         <v>2</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,23 +3663,23 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B410">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -3687,23 +3687,23 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B413">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B415">
         <v>2</v>
@@ -3711,15 +3711,15 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,39 +3759,39 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,23 +3815,23 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B429">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -3839,15 +3839,15 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B433">
         <v>2</v>
@@ -3855,15 +3855,15 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,31 +3919,31 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,15 +4023,15 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B456">
         <v>2</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,31 +4063,31 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B460">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B463">
         <v>2</v>
@@ -4095,15 +4095,15 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,23 +4111,23 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B466">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,39 +4151,39 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B471">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B473">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,15 +4231,15 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B481">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B482">
         <v>2</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,15 +4255,15 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,39 +4287,39 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B488">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,15 +4351,15 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B496">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B497">
         <v>2</v>
@@ -4367,23 +4367,23 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -4391,15 +4391,15 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B502">
         <v>1</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,39 +4423,39 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B505">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B509">
         <v>2</v>
@@ -4463,95 +4463,95 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B510">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B521">
         <v>2</v>
@@ -4559,15 +4559,15 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B522">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B523">
         <v>3</v>
@@ -4575,18 +4575,34 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="2">
         <v>44600</v>
       </c>
-      <c r="B525">
-        <v>2</v>
+      <c r="B526">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B527">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B527"/>
+  <dimension ref="A1:B531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,7 +754,7 @@
         <v>44002</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>44074</v>
       </c>
       <c r="B115">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4375,7 +4375,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -4383,15 +4383,15 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,25 +4583,57 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B527">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="2">
         <v>44601</v>
       </c>
-      <c r="B527">
+      <c r="B528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B529">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B530">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B531">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +474,7 @@
         <v>43956</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -634,7 +634,7 @@
         <v>43984</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44019</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>44044</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>44052</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>44054</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>44070</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>44085</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>44121</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1687,23 +1687,23 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -1711,23 +1711,23 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -1735,15 +1735,15 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -1751,15 +1751,15 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44137</v>
+        <v>44134</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -1767,10 +1767,10 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44169</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4375,7 +4375,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -4383,15 +4383,15 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B527">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B528">
         <v>2</v>
@@ -4615,25 +4615,33 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B532">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B532"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,15 +1927,15 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B327">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B338">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B341">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B380">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B528">
         <v>2</v>
@@ -4615,23 +4615,23 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B531">
         <v>2</v>
@@ -4639,10 +4639,18 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B532">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="2">
         <v>44606</v>
       </c>
-      <c r="B532">
-        <v>1</v>
+      <c r="B533">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B533"/>
+  <dimension ref="A1:B534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,7 +554,7 @@
         <v>43971</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B298">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B527">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B528">
         <v>2</v>
@@ -4615,42 +4615,50 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B534">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B534"/>
+  <dimension ref="A1:B536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,7 +554,7 @@
         <v>43971</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B327">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B338">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B341">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B380">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B528">
         <v>2</v>
@@ -4615,31 +4615,31 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B532">
         <v>2</v>
@@ -4647,18 +4647,34 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B534">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="2">
         <v>44608</v>
       </c>
-      <c r="B534">
-        <v>3</v>
+      <c r="B535">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -554,7 +554,7 @@
         <v>43971</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B298">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B527">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B528">
         <v>2</v>
@@ -4615,31 +4615,31 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B532">
         <v>2</v>
@@ -4647,15 +4647,15 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B536">
         <v>1</v>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B536"/>
+  <dimension ref="A1:B537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,7 +554,7 @@
         <v>43971</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>44600</v>
       </c>
       <c r="B526">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4675,6 +4675,14 @@
       </c>
       <c r="B536">
         <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B537">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:B540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,39 +1991,39 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44183</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44184</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,15 +2047,15 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -2079,47 +2079,47 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44203</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,47 +2143,47 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44204</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="B225">
         <v>3</v>
@@ -2191,15 +2191,15 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,23 +2223,23 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="B232">
         <v>4</v>
@@ -2247,31 +2247,31 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="B233">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="B236">
         <v>8</v>
@@ -2279,63 +2279,63 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44227</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44231</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44232</v>
       </c>
       <c r="B242">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44233</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="B244">
         <v>6</v>
@@ -2343,183 +2343,183 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44235</v>
       </c>
       <c r="B245">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44238</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44239</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44240</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44243</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44244</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44245</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44246</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44247</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44248</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44249</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44251</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44252</v>
       </c>
       <c r="B262">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44253</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44254</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44255</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44256</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44257</v>
       </c>
       <c r="B267">
         <v>7</v>
@@ -2527,31 +2527,31 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44258</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44259</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44260</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44261</v>
       </c>
       <c r="B271">
         <v>9</v>
@@ -2559,15 +2559,15 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44263</v>
       </c>
       <c r="B273">
         <v>9</v>
@@ -2575,199 +2575,199 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44264</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44265</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44266</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44267</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44268</v>
       </c>
       <c r="B278">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44269</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44271</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44272</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44273</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44274</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44275</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44278</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44279</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44280</v>
       </c>
       <c r="B290">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44281</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44282</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44283</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44284</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44285</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44286</v>
       </c>
       <c r="B296">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44287</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44288</v>
       </c>
       <c r="B298">
         <v>8</v>
@@ -2775,159 +2775,159 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44289</v>
       </c>
       <c r="B299">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44290</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44291</v>
       </c>
       <c r="B301">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44293</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44294</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44295</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44296</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44297</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44298</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44299</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44300</v>
       </c>
       <c r="B310">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44301</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44302</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44303</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44304</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44305</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44308</v>
       </c>
       <c r="B318">
         <v>4</v>
@@ -2935,247 +2935,247 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44309</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44310</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44311</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44312</v>
       </c>
       <c r="B322">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44314</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44315</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44316</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44317</v>
       </c>
       <c r="B327">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44318</v>
       </c>
       <c r="B328">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44319</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44320</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44321</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44322</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44323</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44324</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44325</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44326</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44327</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="B338">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44329</v>
       </c>
       <c r="B339">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44330</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44331</v>
       </c>
       <c r="B341">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44332</v>
       </c>
       <c r="B342">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44333</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44335</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44336</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44338</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44339</v>
       </c>
       <c r="B349">
         <v>6</v>
@@ -3183,63 +3183,63 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44341</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44342</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44343</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44344</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44345</v>
       </c>
       <c r="B355">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44346</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44347</v>
       </c>
       <c r="B357">
         <v>5</v>
@@ -3247,23 +3247,23 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44350</v>
       </c>
       <c r="B360">
         <v>2</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44351</v>
       </c>
       <c r="B361">
         <v>4</v>
@@ -3279,119 +3279,119 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44353</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44354</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44355</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44356</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44357</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44358</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44359</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44360</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44362</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44364</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44365</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44366</v>
       </c>
       <c r="B376">
         <v>4</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44367</v>
       </c>
       <c r="B377">
         <v>3</v>
@@ -3407,39 +3407,39 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="B380">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44371</v>
       </c>
       <c r="B381">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44372</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44374</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44375</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44376</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44377</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44378</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44379</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44380</v>
       </c>
       <c r="B390">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44381</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,39 +3527,39 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44383</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44384</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44385</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44386</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44387</v>
       </c>
       <c r="B397">
         <v>2</v>
@@ -3567,47 +3567,47 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44388</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44390</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44391</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44392</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44393</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44394</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -3623,23 +3623,23 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44395</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44396</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="B407">
         <v>5</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44398</v>
       </c>
       <c r="B408">
         <v>2</v>
@@ -3655,15 +3655,15 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44399</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44400</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,71 +3671,71 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44401</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44404</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44408</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="B416">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44411</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44413</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44414</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44416</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,15 +3767,15 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44418</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -3783,15 +3783,15 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44419</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44420</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -3799,15 +3799,15 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44422</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44424</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44425</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,15 +3823,15 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44426</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44427</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -3839,47 +3839,47 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44428</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44430</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44431</v>
       </c>
       <c r="B434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44434</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44435</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44436</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44438</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44439</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44441</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,39 +3927,39 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44448</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44451</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44453</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="B446">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44455</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44457</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44458</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44467</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44468</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44471</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44472</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44473</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,39 +4031,39 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44474</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44475</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44477</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44481</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44486</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,15 +4071,15 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44487</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44491</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44492</v>
       </c>
       <c r="B463">
         <v>2</v>
@@ -4095,39 +4095,39 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44493</v>
       </c>
       <c r="B464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44494</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44495</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44498</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44499</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,15 +4135,15 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44500</v>
       </c>
       <c r="B469">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44505</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44508</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,15 +4159,15 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44509</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44510</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,15 +4175,15 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44512</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44513</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,15 +4191,15 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44514</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44515</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44517</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44520</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44523</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44527</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44528</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44529</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44530</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,23 +4263,23 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44531</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44532</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44535</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44537</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,15 +4295,15 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44538</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,15 +4311,15 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44542</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44543</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -4327,15 +4327,15 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44545</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44546</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44554</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44556</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44557</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44559</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44560</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44562</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -4391,31 +4391,31 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44567</v>
       </c>
       <c r="B501">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44568</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44571</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44573</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,15 +4431,15 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44574</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44577</v>
       </c>
       <c r="B507">
         <v>1</v>
@@ -4447,71 +4447,71 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44578</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44580</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44583</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44584</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44588</v>
       </c>
       <c r="B516">
         <v>4</v>
@@ -4519,127 +4519,127 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44592</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44595</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44596</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44600</v>
+        <v>44598</v>
       </c>
       <c r="B526">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44601</v>
+        <v>44599</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44603</v>
+        <v>44601</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44604</v>
+        <v>44602</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44606</v>
+        <v>44604</v>
       </c>
       <c r="B532">
         <v>2</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44607</v>
+        <v>44605</v>
       </c>
       <c r="B533">
         <v>3</v>
@@ -4655,34 +4655,58 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44608</v>
+        <v>44606</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44609</v>
+        <v>44607</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="2">
         <v>44612</v>
       </c>
-      <c r="B537">
-        <v>3</v>
+      <c r="B539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B540"/>
+  <dimension ref="A1:B542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1394,7 +1394,7 @@
         <v>44085</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,55 +1991,55 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,39 +2055,39 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -2095,15 +2095,15 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -2111,15 +2111,15 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B222">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -2175,31 +2175,31 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B226">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B230">
         <v>3</v>
@@ -2231,31 +2231,31 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B233">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B234">
         <v>4</v>
@@ -2263,71 +2263,71 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B237">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B238">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B239">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B241">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B242">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B243">
         <v>6</v>
@@ -2335,23 +2335,23 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B246">
         <v>6</v>
@@ -2359,135 +2359,135 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B247">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B250">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B251">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B252">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B253">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B255">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B256">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B258">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B259">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B260">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B261">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B262">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B263">
         <v>7</v>
@@ -2495,15 +2495,15 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B264">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B265">
         <v>8</v>
@@ -2511,111 +2511,111 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B266">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B268">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B269">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B270">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B272">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B274">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B275">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B279">
         <v>6</v>
@@ -2623,95 +2623,95 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B280">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B281">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B282">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B283">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B284">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B285">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B286">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B287">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B288">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B289">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B290">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B291">
         <v>8</v>
@@ -2719,47 +2719,47 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B292">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B293">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B294">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B295">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B296">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B297">
         <v>8</v>
@@ -2767,23 +2767,23 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B299">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B300">
         <v>8</v>
@@ -2791,15 +2791,15 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B301">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B302">
         <v>6</v>
@@ -2807,71 +2807,71 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B303">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B304">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B305">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B306">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B307">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B308">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B309">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B311">
         <v>7</v>
@@ -2879,95 +2879,95 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B312">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B313">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B314">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B315">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B316">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B317">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B319">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B320">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B322">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B323">
         <v>6</v>
@@ -2975,47 +2975,47 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B325">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B326">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B328">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B329">
         <v>11</v>
@@ -3023,87 +3023,87 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B330">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B331">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B334">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B335">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B336">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B337">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B338">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B340">
         <v>6</v>
@@ -3111,23 +3111,23 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B342">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B343">
         <v>8</v>
@@ -3135,103 +3135,103 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B345">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B346">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B347">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B348">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B350">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B351">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B352">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B353">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B356">
         <v>5</v>
@@ -3239,191 +3239,191 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B363">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B364">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B366">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B368">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B372">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B373">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B374">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B375">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B378">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B380">
         <v>2</v>
@@ -3431,15 +3431,15 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B381">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B383">
         <v>5</v>
@@ -3455,63 +3455,63 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B386">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B387">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B388">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B390">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B393">
         <v>2</v>
@@ -3535,15 +3535,15 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B394">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -3551,39 +3551,39 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -3591,79 +3591,79 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B402">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B405">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B409">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B411">
         <v>2</v>
@@ -3679,23 +3679,23 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B412">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B413">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -3703,23 +3703,23 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B416">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B417">
         <v>2</v>
@@ -3727,15 +3727,15 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -3775,39 +3775,39 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B427">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -3831,23 +3831,23 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -3855,15 +3855,15 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B435">
         <v>2</v>
@@ -3871,15 +3871,15 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,31 +3935,31 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B445">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B446">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -4079,31 +4079,31 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B465">
         <v>2</v>
@@ -4111,15 +4111,15 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B466">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,23 +4127,23 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B469">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,39 +4167,39 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B476">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -4247,15 +4247,15 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B485">
         <v>2</v>
@@ -4271,15 +4271,15 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B486">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,39 +4303,39 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B491">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -4367,15 +4367,15 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B499">
         <v>2</v>
@@ -4383,23 +4383,23 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,15 +4407,15 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,39 +4439,39 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B510">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -4479,95 +4479,95 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B522">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -4575,15 +4575,15 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B525">
         <v>3</v>
@@ -4591,79 +4591,79 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B528">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B531">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,15 +4671,15 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,25 +4687,41 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B539">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B542">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B542"/>
+  <dimension ref="A1:B545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,55 +1991,55 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,39 +2055,39 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -2095,15 +2095,15 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -2111,15 +2111,15 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -2175,31 +2175,31 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B230">
         <v>3</v>
@@ -2231,31 +2231,31 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B233">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B234">
         <v>4</v>
@@ -2263,71 +2263,71 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B242">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B243">
         <v>6</v>
@@ -2335,23 +2335,23 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B245">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B246">
         <v>6</v>
@@ -2359,135 +2359,135 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B262">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B263">
         <v>7</v>
@@ -2495,15 +2495,15 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B265">
         <v>8</v>
@@ -2511,111 +2511,111 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B278">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B279">
         <v>6</v>
@@ -2623,95 +2623,95 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B288">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B290">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B291">
         <v>8</v>
@@ -2719,47 +2719,47 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B296">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B297">
         <v>8</v>
@@ -2767,23 +2767,23 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B298">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B299">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B300">
         <v>8</v>
@@ -2791,15 +2791,15 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B301">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B302">
         <v>6</v>
@@ -2807,71 +2807,71 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B304">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B308">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B310">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B311">
         <v>7</v>
@@ -2879,95 +2879,95 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B322">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B323">
         <v>6</v>
@@ -2975,47 +2975,47 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B328">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B329">
         <v>11</v>
@@ -3023,87 +3023,87 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B330">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B331">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B333">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B339">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B340">
         <v>6</v>
@@ -3111,23 +3111,23 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B342">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B343">
         <v>8</v>
@@ -3135,103 +3135,103 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B345">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B347">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B355">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B356">
         <v>5</v>
@@ -3239,191 +3239,191 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B358">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B364">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B371">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B380">
         <v>2</v>
@@ -3431,15 +3431,15 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B381">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B383">
         <v>5</v>
@@ -3455,63 +3455,63 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B387">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B390">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B393">
         <v>2</v>
@@ -3535,15 +3535,15 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -3551,39 +3551,39 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -3591,79 +3591,79 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B411">
         <v>2</v>
@@ -3679,23 +3679,23 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -3703,23 +3703,23 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B416">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B417">
         <v>2</v>
@@ -3727,15 +3727,15 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -3775,39 +3775,39 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -3831,23 +3831,23 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -3855,15 +3855,15 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B435">
         <v>2</v>
@@ -3871,15 +3871,15 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,31 +3935,31 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B446">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -4079,31 +4079,31 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B465">
         <v>2</v>
@@ -4111,15 +4111,15 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,23 +4127,23 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B469">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,39 +4167,39 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -4247,15 +4247,15 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B485">
         <v>2</v>
@@ -4271,15 +4271,15 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,39 +4303,39 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -4367,15 +4367,15 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B499">
         <v>2</v>
@@ -4383,23 +4383,23 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B501">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,15 +4407,15 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,39 +4439,39 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -4479,95 +4479,95 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -4575,15 +4575,15 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B525">
         <v>3</v>
@@ -4591,79 +4591,79 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B527">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,15 +4671,15 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44611</v>
+        <v>44609</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,23 +4687,23 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -4719,10 +4719,34 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="2">
         <v>44616</v>
       </c>
-      <c r="B542">
-        <v>1</v>
+      <c r="B543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B545">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B545"/>
+  <dimension ref="A1:B544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,39 +1991,39 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44183</v>
+        <v>44188</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44184</v>
+        <v>44191</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,15 +2047,15 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44188</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44191</v>
+        <v>44194</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44192</v>
+        <v>44195</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -2079,47 +2079,47 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44195</v>
+        <v>44197</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44197</v>
+        <v>44199</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44198</v>
+        <v>44200</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44199</v>
+        <v>44201</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44200</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44201</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44203</v>
+        <v>44207</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,47 +2143,47 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44204</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44207</v>
+        <v>44211</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44209</v>
+        <v>44212</v>
       </c>
       <c r="B222">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44211</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44212</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44213</v>
+        <v>44216</v>
       </c>
       <c r="B225">
         <v>3</v>
@@ -2191,15 +2191,15 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44215</v>
+        <v>44218</v>
       </c>
       <c r="B226">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44216</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44218</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44219</v>
+        <v>44221</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,23 +2223,23 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44220</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="B232">
         <v>4</v>
@@ -2247,31 +2247,31 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44223</v>
+        <v>44225</v>
       </c>
       <c r="B233">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44224</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44225</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44226</v>
+        <v>44228</v>
       </c>
       <c r="B236">
         <v>8</v>
@@ -2279,63 +2279,63 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44227</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44228</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44229</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44230</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44231</v>
+        <v>44233</v>
       </c>
       <c r="B241">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44232</v>
+        <v>44234</v>
       </c>
       <c r="B242">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44233</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44234</v>
+        <v>44236</v>
       </c>
       <c r="B244">
         <v>6</v>
@@ -2343,183 +2343,183 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44235</v>
+        <v>44237</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44237</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44238</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44239</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44240</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44241</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44244</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44245</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44246</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44247</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44248</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44251</v>
+        <v>44253</v>
       </c>
       <c r="B261">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="B262">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44253</v>
+        <v>44255</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44254</v>
+        <v>44256</v>
       </c>
       <c r="B264">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44255</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44257</v>
+        <v>44259</v>
       </c>
       <c r="B267">
         <v>7</v>
@@ -2527,31 +2527,31 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44258</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44259</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44260</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="B271">
         <v>9</v>
@@ -2559,15 +2559,15 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44262</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44263</v>
+        <v>44265</v>
       </c>
       <c r="B273">
         <v>9</v>
@@ -2575,199 +2575,199 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44266</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44267</v>
+        <v>44269</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44268</v>
+        <v>44270</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44269</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44271</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44273</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44274</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44275</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44276</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44278</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44279</v>
+        <v>44281</v>
       </c>
       <c r="B289">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44280</v>
+        <v>44282</v>
       </c>
       <c r="B290">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44281</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44282</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44283</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44284</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44285</v>
+        <v>44287</v>
       </c>
       <c r="B295">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44286</v>
+        <v>44288</v>
       </c>
       <c r="B296">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44287</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44288</v>
+        <v>44290</v>
       </c>
       <c r="B298">
         <v>8</v>
@@ -2775,159 +2775,159 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44289</v>
+        <v>44291</v>
       </c>
       <c r="B299">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44291</v>
+        <v>44293</v>
       </c>
       <c r="B301">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44292</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44293</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44294</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44295</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44296</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44297</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44298</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44299</v>
+        <v>44301</v>
       </c>
       <c r="B309">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44300</v>
+        <v>44302</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44301</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44302</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44303</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44304</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44305</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44306</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44307</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44308</v>
+        <v>44310</v>
       </c>
       <c r="B318">
         <v>4</v>
@@ -2935,247 +2935,247 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44309</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44310</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44311</v>
+        <v>44313</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44312</v>
+        <v>44314</v>
       </c>
       <c r="B322">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44314</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44315</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44316</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44317</v>
+        <v>44319</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44318</v>
+        <v>44320</v>
       </c>
       <c r="B328">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44319</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44320</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44321</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44322</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44323</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44324</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44325</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="B338">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44329</v>
+        <v>44331</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44330</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44331</v>
+        <v>44333</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44332</v>
+        <v>44334</v>
       </c>
       <c r="B342">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44334</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44335</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44336</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44338</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44339</v>
+        <v>44341</v>
       </c>
       <c r="B349">
         <v>6</v>
@@ -3183,63 +3183,63 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44341</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44343</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44344</v>
+        <v>44346</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44345</v>
+        <v>44347</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44346</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44347</v>
+        <v>44349</v>
       </c>
       <c r="B357">
         <v>5</v>
@@ -3247,23 +3247,23 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44349</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44350</v>
+        <v>44352</v>
       </c>
       <c r="B360">
         <v>2</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44351</v>
+        <v>44353</v>
       </c>
       <c r="B361">
         <v>4</v>
@@ -3279,119 +3279,119 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44353</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44354</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44356</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44357</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44358</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44359</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44365</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44366</v>
+        <v>44368</v>
       </c>
       <c r="B376">
         <v>4</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44367</v>
+        <v>44369</v>
       </c>
       <c r="B377">
         <v>3</v>
@@ -3407,39 +3407,39 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B378">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44371</v>
+        <v>44373</v>
       </c>
       <c r="B381">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44372</v>
+        <v>44374</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44375</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44377</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44378</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44379</v>
+        <v>44381</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44380</v>
+        <v>44382</v>
       </c>
       <c r="B390">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44381</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44382</v>
+        <v>44384</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,39 +3527,39 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44383</v>
+        <v>44385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="B394">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44385</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44386</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44387</v>
+        <v>44389</v>
       </c>
       <c r="B397">
         <v>2</v>
@@ -3567,47 +3567,47 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44388</v>
+        <v>44390</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44391</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44392</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44393</v>
+        <v>44395</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44394</v>
+        <v>44396</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -3623,23 +3623,23 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44395</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44396</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="B407">
         <v>5</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44398</v>
+        <v>44400</v>
       </c>
       <c r="B408">
         <v>2</v>
@@ -3655,15 +3655,15 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44399</v>
+        <v>44401</v>
       </c>
       <c r="B409">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,71 +3671,71 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44401</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44404</v>
+        <v>44407</v>
       </c>
       <c r="B412">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="B413">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44407</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44408</v>
+        <v>44411</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44410</v>
+        <v>44412</v>
       </c>
       <c r="B416">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44411</v>
+        <v>44413</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44413</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44414</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44416</v>
+        <v>44418</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,15 +3767,15 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -3783,15 +3783,15 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44419</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -3799,15 +3799,15 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="B427">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,15 +3823,15 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -3839,47 +3839,47 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44434</v>
+        <v>44436</v>
       </c>
       <c r="B436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44436</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44439</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44441</v>
+        <v>44451</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,39 +3927,39 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="B445">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B446">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44455</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44457</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44458</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44467</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44468</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44471</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44472</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,39 +4031,39 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44475</v>
+        <v>44481</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44477</v>
+        <v>44486</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44481</v>
+        <v>44487</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44486</v>
+        <v>44491</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,15 +4071,15 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44487</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44491</v>
+        <v>44493</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44492</v>
+        <v>44494</v>
       </c>
       <c r="B463">
         <v>2</v>
@@ -4095,39 +4095,39 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44493</v>
+        <v>44495</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44494</v>
+        <v>44498</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44495</v>
+        <v>44499</v>
       </c>
       <c r="B466">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44498</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44499</v>
+        <v>44505</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,15 +4135,15 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44500</v>
+        <v>44508</v>
       </c>
       <c r="B469">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,15 +4159,15 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44509</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44510</v>
+        <v>44513</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,15 +4175,15 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44512</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44513</v>
+        <v>44515</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,15 +4191,15 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B476">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44515</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44517</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44520</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44523</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44527</v>
+        <v>44529</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44528</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44530</v>
+        <v>44532</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,23 +4263,23 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44531</v>
+        <v>44535</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44532</v>
+        <v>44537</v>
       </c>
       <c r="B486">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44535</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,15 +4295,15 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44538</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,15 +4311,15 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44542</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44543</v>
+        <v>44546</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -4327,15 +4327,15 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44545</v>
+        <v>44554</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44546</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44554</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44557</v>
+        <v>44560</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44559</v>
+        <v>44562</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44560</v>
+        <v>44567</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44562</v>
+        <v>44568</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -4391,31 +4391,31 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44567</v>
+        <v>44571</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44568</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44571</v>
+        <v>44573</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44572</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44573</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,15 +4431,15 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44574</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44577</v>
+        <v>44580</v>
       </c>
       <c r="B507">
         <v>1</v>
@@ -4447,71 +4447,71 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44578</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44580</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B510">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44584</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B516">
         <v>4</v>
@@ -4519,127 +4519,127 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B521">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B522">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44596</v>
+        <v>44598</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B528">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44601</v>
+        <v>44603</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44602</v>
+        <v>44604</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B531">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44604</v>
+        <v>44606</v>
       </c>
       <c r="B532">
         <v>2</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B533">
         <v>3</v>
@@ -4655,39 +4655,39 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44606</v>
+        <v>44608</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44607</v>
+        <v>44609</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44611</v>
+        <v>44613</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,23 +4695,23 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44612</v>
+        <v>44614</v>
       </c>
       <c r="B539">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44614</v>
+        <v>44616</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -4719,33 +4719,25 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B544">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2">
-      <c r="A545" s="2">
-        <v>44619</v>
-      </c>
-      <c r="B545">
         <v>2</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B544"/>
+  <dimension ref="A1:B547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B327">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B338">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B341">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B380">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44611</v>
+        <v>44609</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,18 +4727,42 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="2">
         <v>44620</v>
       </c>
-      <c r="B544">
-        <v>2</v>
+      <c r="B545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B547">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B547"/>
+  <dimension ref="A1:B548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4765,6 +4765,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B548"/>
+  <dimension ref="A1:B549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B298">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B527">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -4743,26 +4743,26 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4770,6 +4770,14 @@
         <v>44625</v>
       </c>
       <c r="B548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B549">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B549"/>
+  <dimension ref="A1:B550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4781,6 +4781,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="2">
+        <v>44628</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B550"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2015,23 +2015,23 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B327">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B338">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B341">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B380">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44611</v>
+        <v>44609</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -4743,31 +4743,31 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,10 +4783,50 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="2">
         <v>44628</v>
       </c>
-      <c r="B550">
-        <v>1</v>
+      <c r="B551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B552">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B553">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="2">
+        <v>44637</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="2">
+        <v>44638</v>
+      </c>
+      <c r="B555">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,34 +1991,34 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4383,7 +4383,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -4391,15 +4391,15 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B501">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,15 +4407,15 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,39 +4439,39 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -4479,95 +4479,95 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -4575,15 +4575,15 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B525">
         <v>3</v>
@@ -4591,31 +4591,31 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B527">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B528">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B529">
         <v>3</v>
@@ -4623,47 +4623,47 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,15 +4671,15 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44611</v>
+        <v>44609</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,23 +4687,23 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,23 +4711,23 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,15 +4735,15 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B544">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B545">
         <v>2</v>
@@ -4751,26 +4751,26 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4827,6 +4827,30 @@
       </c>
       <c r="B555">
         <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="2">
+        <v>44642</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,34 +1991,34 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4383,7 +4383,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -4391,15 +4391,15 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,15 +4407,15 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,39 +4439,39 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B510">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -4479,95 +4479,95 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B522">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -4575,15 +4575,15 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B525">
         <v>3</v>
@@ -4591,31 +4591,31 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B528">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B529">
         <v>3</v>
@@ -4623,47 +4623,47 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B531">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,15 +4671,15 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,23 +4687,23 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B539">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,23 +4711,23 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,15 +4735,15 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B544">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B545">
         <v>2</v>
@@ -4751,26 +4751,26 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B558"/>
+  <dimension ref="A1:B560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,34 +1991,34 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4850,6 +4850,22 @@
         <v>44645</v>
       </c>
       <c r="B558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B560">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B560"/>
+  <dimension ref="A1:B559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,15 +4791,15 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44628</v>
+        <v>44631</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44631</v>
+        <v>44636</v>
       </c>
       <c r="B552">
         <v>3</v>
@@ -4807,31 +4807,31 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B553">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44645</v>
+        <v>44653</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,17 +4855,9 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B559">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2">
-      <c r="A560" s="2">
-        <v>44654</v>
-      </c>
-      <c r="B560">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B563"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B298">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B527">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -4743,26 +4743,26 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4858,6 +4858,38 @@
         <v>44654</v>
       </c>
       <c r="B559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2">
+        <v>44663</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B561">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="2">
+        <v>44668</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="2">
+        <v>44673</v>
+      </c>
+      <c r="B563">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B563"/>
+  <dimension ref="A1:B571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B327">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B338">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B341">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B380">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,47 +4375,47 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44563</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44567</v>
       </c>
       <c r="B501">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44568</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44571</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44573</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,15 +4431,15 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44574</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44577</v>
       </c>
       <c r="B507">
         <v>1</v>
@@ -4447,71 +4447,71 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44578</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44580</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44583</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44584</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44588</v>
       </c>
       <c r="B516">
         <v>4</v>
@@ -4519,127 +4519,127 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44592</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44595</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44596</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44600</v>
+        <v>44598</v>
       </c>
       <c r="B526">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44601</v>
+        <v>44599</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="B528">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44603</v>
+        <v>44601</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44604</v>
+        <v>44602</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44606</v>
+        <v>44604</v>
       </c>
       <c r="B532">
         <v>2</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44607</v>
+        <v>44605</v>
       </c>
       <c r="B533">
         <v>3</v>
@@ -4655,39 +4655,39 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44608</v>
+        <v>44606</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44609</v>
+        <v>44607</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44612</v>
+        <v>44609</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44613</v>
+        <v>44611</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,23 +4695,23 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44614</v>
+        <v>44612</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44616</v>
+        <v>44614</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -4719,47 +4719,47 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44619</v>
+        <v>44616</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="B544">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44622</v>
+        <v>44619</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44624</v>
+        <v>44622</v>
       </c>
       <c r="B547">
         <v>1</v>
@@ -4767,15 +4767,15 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44627</v>
+        <v>44624</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44628</v>
+        <v>44625</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,31 +4791,31 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44631</v>
+        <v>44627</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44636</v>
+        <v>44628</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44637</v>
+        <v>44631</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44638</v>
+        <v>44636</v>
       </c>
       <c r="B554">
         <v>3</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44642</v>
+        <v>44637</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,15 +4831,15 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44643</v>
+        <v>44638</v>
       </c>
       <c r="B556">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44645</v>
+        <v>44642</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44653</v>
+        <v>44643</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44654</v>
+        <v>44645</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44663</v>
+        <v>44653</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,15 +4871,15 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44666</v>
+        <v>44654</v>
       </c>
       <c r="B561">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44668</v>
+        <v>44663</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -4887,10 +4887,74 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B563">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="2">
+        <v>44668</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2">
         <v>44673</v>
       </c>
-      <c r="B563">
-        <v>1</v>
+      <c r="B565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="2">
+        <v>44698</v>
+      </c>
+      <c r="B567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="2">
+        <v>44701</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="2">
+        <v>44709</v>
+      </c>
+      <c r="B569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="2">
+        <v>44710</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B571">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -4383,7 +4383,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -4391,15 +4391,15 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,15 +4407,15 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,39 +4439,39 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B510">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -4479,95 +4479,95 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B522">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -4575,15 +4575,15 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B525">
         <v>3</v>
@@ -4591,31 +4591,31 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B528">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B529">
         <v>3</v>
@@ -4623,47 +4623,47 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B531">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,15 +4671,15 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,23 +4687,23 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B539">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,23 +4711,23 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,15 +4735,15 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B544">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B545">
         <v>2</v>
@@ -4751,31 +4751,31 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -4799,15 +4799,15 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44628</v>
+        <v>44631</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44631</v>
+        <v>44636</v>
       </c>
       <c r="B553">
         <v>3</v>
@@ -4815,31 +4815,31 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B554">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="B556">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44645</v>
+        <v>44653</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -4879,23 +4879,23 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44666</v>
+        <v>44668</v>
       </c>
       <c r="B563">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44668</v>
+        <v>44673</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44673</v>
+        <v>44681</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44681</v>
+        <v>44698</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B567">
         <v>1</v>
@@ -4927,34 +4927,34 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44701</v>
+        <v>44709</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44712</v>
+        <v>44725</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B571"/>
+  <dimension ref="A1:B573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1938,7 +1938,7 @@
         <v>44169</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4383,7 +4383,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -4391,15 +4391,15 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B501">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,15 +4407,15 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,39 +4439,39 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -4479,95 +4479,95 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -4575,15 +4575,15 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B525">
         <v>3</v>
@@ -4591,31 +4591,31 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B527">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B528">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B529">
         <v>3</v>
@@ -4623,47 +4623,47 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,15 +4671,15 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44611</v>
+        <v>44609</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,23 +4687,23 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,23 +4711,23 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,15 +4735,15 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B544">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B545">
         <v>2</v>
@@ -4751,31 +4751,31 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -4799,15 +4799,15 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44631</v>
+        <v>44628</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44636</v>
+        <v>44631</v>
       </c>
       <c r="B553">
         <v>3</v>
@@ -4815,31 +4815,31 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44642</v>
+        <v>44638</v>
       </c>
       <c r="B556">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44645</v>
+        <v>44643</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44653</v>
+        <v>44645</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44654</v>
+        <v>44653</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44663</v>
+        <v>44654</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -4879,23 +4879,23 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B562">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44668</v>
+        <v>44666</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44673</v>
+        <v>44668</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44681</v>
+        <v>44673</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44698</v>
+        <v>44681</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B567">
         <v>1</v>
@@ -4927,33 +4927,49 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44709</v>
+        <v>44701</v>
       </c>
       <c r="B568">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="2">
         <v>44725</v>
       </c>
-      <c r="B571">
+      <c r="B572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B573">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B573"/>
+  <dimension ref="A1:B572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1938,7 +1938,7 @@
         <v>44169</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4383,7 +4383,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -4391,15 +4391,15 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,15 +4407,15 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,39 +4439,39 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B510">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -4479,95 +4479,95 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B522">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -4575,15 +4575,15 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B525">
         <v>3</v>
@@ -4591,31 +4591,31 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B528">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B529">
         <v>3</v>
@@ -4623,47 +4623,47 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B531">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,15 +4671,15 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,23 +4687,23 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B539">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,23 +4711,23 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,15 +4735,15 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B544">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B545">
         <v>2</v>
@@ -4751,31 +4751,31 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -4799,15 +4799,15 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44628</v>
+        <v>44631</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44631</v>
+        <v>44636</v>
       </c>
       <c r="B553">
         <v>3</v>
@@ -4815,31 +4815,31 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B554">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="B556">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44645</v>
+        <v>44653</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -4879,23 +4879,23 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44666</v>
+        <v>44668</v>
       </c>
       <c r="B563">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44668</v>
+        <v>44673</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44673</v>
+        <v>44681</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44681</v>
+        <v>44698</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B567">
         <v>1</v>
@@ -4927,49 +4927,41 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44701</v>
+        <v>44709</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44712</v>
+        <v>44725</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44725</v>
+        <v>44740</v>
       </c>
       <c r="B572">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2">
-      <c r="A573" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B573">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -4962,7 +4962,7 @@
         <v>44740</v>
       </c>
       <c r="B572">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B572"/>
+  <dimension ref="A1:B573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4965,6 +4965,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B573">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B573"/>
+  <dimension ref="A1:B574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4973,6 +4973,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B574"/>
+  <dimension ref="A1:B578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4981,6 +4981,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2">
+        <v>44760</v>
+      </c>
+      <c r="B577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B578"/>
+  <dimension ref="A1:B579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B298">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B527">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -4743,31 +4743,31 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,15 +4791,15 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44628</v>
+        <v>44631</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44631</v>
+        <v>44636</v>
       </c>
       <c r="B552">
         <v>3</v>
@@ -4807,31 +4807,31 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B553">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44645</v>
+        <v>44653</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,23 +4871,23 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44666</v>
+        <v>44668</v>
       </c>
       <c r="B562">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44668</v>
+        <v>44673</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44673</v>
+        <v>44681</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44681</v>
+        <v>44698</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,55 +4919,55 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44701</v>
+        <v>44709</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B568">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44712</v>
+        <v>44725</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44725</v>
+        <v>44740</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="B572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44753</v>
+        <v>44755</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44756</v>
+        <v>44760</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,10 +5007,18 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44761</v>
+        <v>44764</v>
       </c>
       <c r="B578">
         <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B579">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B579"/>
+  <dimension ref="A1:B580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B327">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B338">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B341">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B380">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44611</v>
+        <v>44609</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -4743,31 +4743,31 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,15 +4791,15 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44631</v>
+        <v>44628</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44636</v>
+        <v>44631</v>
       </c>
       <c r="B552">
         <v>3</v>
@@ -4807,31 +4807,31 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B554">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44642</v>
+        <v>44638</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44645</v>
+        <v>44643</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44653</v>
+        <v>44645</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44654</v>
+        <v>44653</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44663</v>
+        <v>44654</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,23 +4871,23 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B561">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44668</v>
+        <v>44666</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44673</v>
+        <v>44668</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44681</v>
+        <v>44673</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44698</v>
+        <v>44681</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,55 +4919,55 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44709</v>
+        <v>44701</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44725</v>
+        <v>44712</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44740</v>
+        <v>44725</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44750</v>
+        <v>44740</v>
       </c>
       <c r="B572">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44753</v>
+        <v>44750</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44755</v>
+        <v>44753</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44760</v>
+        <v>44756</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44764</v>
+        <v>44761</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -5015,9 +5015,17 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="2">
         <v>44765</v>
       </c>
-      <c r="B579">
+      <c r="B580">
         <v>3</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B580"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5029,6 +5029,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,15 +1927,15 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B298">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B527">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -4743,31 +4743,31 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,15 +4791,15 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44628</v>
+        <v>44631</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44631</v>
+        <v>44636</v>
       </c>
       <c r="B552">
         <v>3</v>
@@ -4807,31 +4807,31 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B553">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44645</v>
+        <v>44653</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,23 +4871,23 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44666</v>
+        <v>44668</v>
       </c>
       <c r="B562">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44668</v>
+        <v>44673</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44673</v>
+        <v>44681</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44681</v>
+        <v>44698</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,55 +4919,55 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44701</v>
+        <v>44709</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B568">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44712</v>
+        <v>44725</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44725</v>
+        <v>44740</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="B572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44753</v>
+        <v>44755</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44756</v>
+        <v>44760</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44761</v>
+        <v>44764</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -5015,23 +5015,23 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44764</v>
+        <v>44765</v>
       </c>
       <c r="B579">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44765</v>
+        <v>44773</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B582">
         <v>1</v>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B582"/>
+  <dimension ref="A1:B584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,15 +1927,15 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B327">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B338">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B341">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B380">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44611</v>
+        <v>44609</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -4743,31 +4743,31 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,15 +4791,15 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44631</v>
+        <v>44628</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44636</v>
+        <v>44631</v>
       </c>
       <c r="B552">
         <v>3</v>
@@ -4807,31 +4807,31 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B554">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44642</v>
+        <v>44638</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44645</v>
+        <v>44643</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44653</v>
+        <v>44645</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44654</v>
+        <v>44653</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44663</v>
+        <v>44654</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,23 +4871,23 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B561">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44668</v>
+        <v>44666</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44673</v>
+        <v>44668</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44681</v>
+        <v>44673</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44698</v>
+        <v>44681</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,55 +4919,55 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44709</v>
+        <v>44701</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44725</v>
+        <v>44712</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44740</v>
+        <v>44725</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44750</v>
+        <v>44740</v>
       </c>
       <c r="B572">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44753</v>
+        <v>44750</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44755</v>
+        <v>44753</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44760</v>
+        <v>44756</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44764</v>
+        <v>44761</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -5015,23 +5015,23 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B579">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44773</v>
+        <v>44765</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44774</v>
+        <v>44772</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -5039,9 +5039,25 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B583">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="2">
         <v>44775</v>
       </c>
-      <c r="B582">
+      <c r="B584">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B584"/>
+  <dimension ref="A1:B587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5061,6 +5061,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="2">
+        <v>44780</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B587">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B587"/>
+  <dimension ref="A1:B588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B298">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B527">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -4743,31 +4743,31 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,15 +4791,15 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44628</v>
+        <v>44631</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44631</v>
+        <v>44636</v>
       </c>
       <c r="B552">
         <v>3</v>
@@ -4807,31 +4807,31 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B553">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44645</v>
+        <v>44653</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,23 +4871,23 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44666</v>
+        <v>44668</v>
       </c>
       <c r="B562">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44668</v>
+        <v>44673</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44673</v>
+        <v>44681</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44681</v>
+        <v>44698</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,55 +4919,55 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44701</v>
+        <v>44709</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B568">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44712</v>
+        <v>44725</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44725</v>
+        <v>44740</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="B572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44753</v>
+        <v>44755</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44756</v>
+        <v>44760</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44761</v>
+        <v>44764</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -5015,23 +5015,23 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44764</v>
+        <v>44765</v>
       </c>
       <c r="B579">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44765</v>
+        <v>44772</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44772</v>
+        <v>44773</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -5039,23 +5039,23 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="B582">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B583">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44775</v>
+        <v>44778</v>
       </c>
       <c r="B584">
         <v>1</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44778</v>
+        <v>44780</v>
       </c>
       <c r="B585">
         <v>1</v>
@@ -5071,18 +5071,26 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44781</v>
+        <v>44784</v>
       </c>
       <c r="B587">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B588"/>
+  <dimension ref="A1:B590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B327">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B338">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B341">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B380">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44611</v>
+        <v>44609</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -4743,31 +4743,31 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,15 +4791,15 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44631</v>
+        <v>44628</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44636</v>
+        <v>44631</v>
       </c>
       <c r="B552">
         <v>3</v>
@@ -4807,31 +4807,31 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B554">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44642</v>
+        <v>44638</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44645</v>
+        <v>44643</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44653</v>
+        <v>44645</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44654</v>
+        <v>44653</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44663</v>
+        <v>44654</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,23 +4871,23 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B561">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44668</v>
+        <v>44666</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44673</v>
+        <v>44668</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44681</v>
+        <v>44673</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44698</v>
+        <v>44681</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,55 +4919,55 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44709</v>
+        <v>44701</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44725</v>
+        <v>44712</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44740</v>
+        <v>44725</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44750</v>
+        <v>44740</v>
       </c>
       <c r="B572">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44753</v>
+        <v>44750</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44755</v>
+        <v>44753</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44760</v>
+        <v>44756</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44764</v>
+        <v>44761</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -5015,23 +5015,23 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B579">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44772</v>
+        <v>44765</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -5039,23 +5039,23 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B582">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B583">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44778</v>
+        <v>44775</v>
       </c>
       <c r="B584">
         <v>1</v>
@@ -5063,33 +5063,49 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44780</v>
+        <v>44778</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44784</v>
+        <v>44781</v>
       </c>
       <c r="B587">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="2">
         <v>44785</v>
       </c>
-      <c r="B588">
+      <c r="B589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="2">
+        <v>44787</v>
+      </c>
+      <c r="B590">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B590"/>
+  <dimension ref="A1:B594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5109,6 +5109,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B594"/>
+  <dimension ref="A1:B595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44138</v>
+        <v>44141</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44152</v>
+        <v>44154</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44154</v>
+        <v>44156</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44156</v>
+        <v>44158</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44184</v>
+        <v>44188</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44191</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44204</v>
+        <v>44207</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B255">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B257">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B273">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B282">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B288">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B298">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B304">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B308">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B330">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B331">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B333">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B334">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B345">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B347">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B350">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B352">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B356">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B358">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B364">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B371">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B372">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B387">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44422</v>
+        <v>44424</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44500</v>
+        <v>44505</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44517</v>
+        <v>44520</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44546</v>
+        <v>44554</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B527">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -4743,31 +4743,31 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,15 +4791,15 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44628</v>
+        <v>44631</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44631</v>
+        <v>44636</v>
       </c>
       <c r="B552">
         <v>3</v>
@@ -4807,31 +4807,31 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B553">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44645</v>
+        <v>44653</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,23 +4871,23 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44666</v>
+        <v>44668</v>
       </c>
       <c r="B562">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44668</v>
+        <v>44673</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44673</v>
+        <v>44681</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44681</v>
+        <v>44698</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,55 +4919,55 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44701</v>
+        <v>44709</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B568">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44712</v>
+        <v>44725</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44725</v>
+        <v>44740</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="B572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44753</v>
+        <v>44755</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44756</v>
+        <v>44760</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44761</v>
+        <v>44764</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -5015,23 +5015,23 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44764</v>
+        <v>44765</v>
       </c>
       <c r="B579">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44765</v>
+        <v>44772</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44772</v>
+        <v>44773</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -5039,55 +5039,55 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="B582">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B583">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44775</v>
+        <v>44778</v>
       </c>
       <c r="B584">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44778</v>
+        <v>44780</v>
       </c>
       <c r="B585">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44781</v>
+        <v>44784</v>
       </c>
       <c r="B587">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44785</v>
+        <v>44787</v>
       </c>
       <c r="B589">
         <v>1</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -5111,23 +5111,23 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44788</v>
+        <v>44790</v>
       </c>
       <c r="B591">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B592">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B593">
         <v>1</v>
@@ -5135,10 +5135,18 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44792</v>
+        <v>44797</v>
       </c>
       <c r="B594">
         <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B595">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B595"/>
+  <dimension ref="A1:B596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,39 +1791,39 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -1831,47 +1831,47 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,23 +1903,23 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2087,15 +2087,15 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,23 +2143,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2167,31 +2167,31 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -2255,71 +2255,71 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -2327,23 +2327,23 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -2351,135 +2351,135 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B254">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B264">
         <v>8</v>
@@ -2503,111 +2503,111 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B272">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -2615,95 +2615,95 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B284">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,47 +2711,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B296">
         <v>8</v>
@@ -2759,23 +2759,23 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B299">
         <v>8</v>
@@ -2783,15 +2783,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -2799,71 +2799,71 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B303">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B306">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -2871,95 +2871,95 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B315">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B322">
         <v>6</v>
@@ -2967,47 +2967,47 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B327">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B328">
         <v>11</v>
@@ -3015,87 +3015,87 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B329">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B332">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B338">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -3103,23 +3103,23 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B341">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -3127,103 +3127,103 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B346">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B349">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B351">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B353">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -3231,191 +3231,191 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B370">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3423,15 +3423,15 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B380">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -3447,63 +3447,63 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B385">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,39 +3543,39 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,79 +3583,79 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44404</v>
+        <v>44401</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,23 +3695,23 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44422</v>
+        <v>44420</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44424</v>
+        <v>44422</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,23 +3823,23 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44451</v>
+        <v>44448</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,31 +3927,31 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44457</v>
+        <v>44455</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44467</v>
+        <v>44458</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,15 +4031,15 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -4047,15 +4047,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44491</v>
+        <v>44487</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44498</v>
+        <v>44495</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44520</v>
+        <v>44517</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44523</v>
+        <v>44520</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,15 +4239,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -4263,15 +4263,15 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44535</v>
+        <v>44532</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,39 +4295,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,15 +4359,15 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,15 +4399,15 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,39 +4431,39 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -4471,95 +4471,95 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B515">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B516">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B518">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B519">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B526">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B528">
         <v>3</v>
@@ -4615,47 +4615,47 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B529">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44611</v>
+        <v>44609</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,23 +4703,23 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -4743,31 +4743,31 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,15 +4791,15 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44631</v>
+        <v>44628</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44636</v>
+        <v>44631</v>
       </c>
       <c r="B552">
         <v>3</v>
@@ -4807,31 +4807,31 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B554">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44642</v>
+        <v>44638</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44645</v>
+        <v>44643</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44653</v>
+        <v>44645</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44654</v>
+        <v>44653</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44663</v>
+        <v>44654</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,23 +4871,23 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B561">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44668</v>
+        <v>44666</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44673</v>
+        <v>44668</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44681</v>
+        <v>44673</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44698</v>
+        <v>44681</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,55 +4919,55 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44709</v>
+        <v>44701</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44725</v>
+        <v>44712</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44740</v>
+        <v>44725</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44750</v>
+        <v>44740</v>
       </c>
       <c r="B572">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44753</v>
+        <v>44750</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44755</v>
+        <v>44753</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44760</v>
+        <v>44756</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44764</v>
+        <v>44761</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -5015,23 +5015,23 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B579">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44772</v>
+        <v>44765</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -5039,31 +5039,31 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B582">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B583">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44778</v>
+        <v>44775</v>
       </c>
       <c r="B584">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44780</v>
+        <v>44778</v>
       </c>
       <c r="B585">
         <v>1</v>
@@ -5071,23 +5071,23 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44784</v>
+        <v>44781</v>
       </c>
       <c r="B587">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44785</v>
+        <v>44784</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44787</v>
+        <v>44785</v>
       </c>
       <c r="B589">
         <v>1</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -5111,23 +5111,23 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44790</v>
+        <v>44788</v>
       </c>
       <c r="B591">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44791</v>
+        <v>44790</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44792</v>
+        <v>44791</v>
       </c>
       <c r="B593">
         <v>1</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44797</v>
+        <v>44792</v>
       </c>
       <c r="B594">
         <v>1</v>
@@ -5143,9 +5143,17 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="2">
         <v>44799</v>
       </c>
-      <c r="B595">
+      <c r="B596">
         <v>3</v>
       </c>
     </row>

--- a/regiones/fallecidos_ayacucho.xlsx
+++ b/regiones/fallecidos_ayacucho.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B596"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -4391,15 +4391,15 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B501">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,15 +4407,15 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,39 +4439,39 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -4479,95 +4479,95 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B519">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -4575,15 +4575,15 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B525">
         <v>3</v>
@@ -4591,31 +4591,31 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44599</v>
+        <v>44598</v>